--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/77_Uşak_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/77_Uşak_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D07C2BE-B76F-4BCC-9619-3BDC55D1BFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29CB482F-76D3-439E-9400-9C6016CDE953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CC437B9-147B-4999-8257-6203F77AC570}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3627D4C-C0CB-4190-8742-4237DF070F82}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{46DE7228-0153-41F1-B0C7-E13107ACD106}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{0DCB9C6E-52A9-4DCE-BF0A-6BACA8774DED}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{A0A1EA3B-09CB-4A3E-A802-AC2EE325B95F}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{CEE30FCC-F67E-4263-AD1F-152FDAC6382C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F5B2FB69-5489-4EC1-9BE3-6C0B663CCD37}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{89409694-F6D4-41A8-A9A9-DEC112536A22}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{367BE719-125B-402E-B82E-CE16FD390A9F}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{653B719B-91B9-4DB3-A180-A6459D0FE7BD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE8F87-91EE-4D2C-A85D-0CEB6EC7D56D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505B78CD-4090-4030-BFDD-EFD229016DDF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2465,18 +2465,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FB1AF543-E6BD-4F38-8537-F576FE514F82}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{552982EA-BC04-4ECF-BD84-E7EE94ADEA4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE4F06BA-04B5-436E-85A1-ECCDFAC86CB9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{746C7792-9A51-4386-9B4A-4F651F4F260E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6F5461D1-EA87-4ABB-AE77-CCC2F792BE2F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{515DB11B-316F-44DE-96FA-439BAC85FE91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F214815-E7E4-4293-96E0-35973F462D49}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2B0FA8B8-F702-45DF-BFF5-B330F86E674E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{83A75032-683C-4F83-9549-4722C2282F15}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1057034E-90A2-4D82-B329-4E8C66CC2902}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CC27A809-ABBD-49F9-AC98-E1986FE1FA71}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{21D3C54C-7519-487C-BF4D-61BBE62A789B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7B870C55-F8F2-44C6-B6EC-38D7C653FE5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{06F139A6-4C79-4A8E-B234-F7DAE2E5B0A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4D0DC4FA-2B54-4F13-9A34-B7456F10080A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{038E61DD-0CDE-45F1-88E3-E3DFA1855B87}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B279E949-1AA9-43A8-9F92-C36E11A8B14D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{42FD1E75-1DFA-4154-A736-C6DD8BE08149}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ECECD5EE-4224-4B43-873C-358CFF1E4115}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{09E6ED62-9252-48FB-A414-1AC559A8D125}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FB013C60-55BE-46A7-8F07-2880B7D64570}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DC40C245-2257-4108-972B-0912D8082D12}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2254BD35-B74C-4E16-8B03-DFB2625C37A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7AFA6816-6DDE-48F7-9FAA-77C6382BABD0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2489,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E6EB65-E80D-4E5D-8085-AABC79FBDF53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380E3D95-5106-4A6D-8B5A-7396EE22A86B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3678,18 +3678,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6D7115BA-6DC8-4590-A6AC-BD6EBA2F5AE0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{73FDA283-E645-4023-9895-6090135E57DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9752E8E-355A-4C1B-ACE0-DF264A00AE49}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E39EE86D-0760-46C2-9A69-CEDD72AD2D03}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BE4A5B2C-49F0-4416-B9DB-74E6E90CD8A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{43034B61-5099-4086-8EC8-45A29CCBB2D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{02FA050C-652D-46D5-A9E6-469F20ABE2C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CD6D70DE-1C5C-42D3-8BCF-A859FF158B71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9F1590BB-C98D-46D0-81E3-969B9D96E8C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7538109C-3582-49B9-9982-B51509B3137F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BE9FB29A-5586-4E48-B452-44D2952EA037}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BF1756B3-6D21-4424-B6A2-141F64D4905B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E659443F-F1DE-4682-9778-BFAA97EC05AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{91DD532C-62CB-4947-BEB9-778020BDD69C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4FB67C02-752D-4692-8956-D86126044989}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C18FA1AA-5BF7-41AF-AA4B-AE90C9FC3EF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2C3C79FA-5A9C-4D41-82AA-283D698DA551}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{36096E4F-08AD-4491-B780-CAFD17DEE34A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0E581DEF-1286-4EF2-B8A2-1A40BFCB140B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15F1B15D-E68C-46D4-9790-094EFB0DD040}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7A287BB9-15AC-4E81-81E5-AC0BB4EC0570}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C51826AF-6384-4595-BDF7-178284A6AE16}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BE6EA105-E783-4684-92AE-D203200DAB4C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0E7AEBF9-936E-4085-ABA8-50EFA8DF8A02}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3702,7 +3702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5CFA58-9F73-439C-AFA7-78ADCCE52794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1235BA0-7574-4450-80E0-EFF398498234}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4887,18 +4887,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{87E486F3-9B89-407B-8332-D18B1A64D08E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{36A439AC-8D29-4D7D-9543-F9680B9139D5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{322D9F4F-90BA-46EF-8BE3-BA7C97C96AB4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4FD54F45-FB00-4523-92C5-588E2DA65210}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F3CA7E2B-C9B2-4A39-B605-73B26E94CE6D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BAD9AA8D-3684-4235-A6E0-58629E11C935}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C04367ED-07DD-406F-9E0E-46F0A34E8416}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5B2586F4-F188-473E-877F-52D0F053790A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B9A21F8A-0F68-4D47-89A2-31F2F55B1C18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A7DF039B-588E-44A7-BCBF-CC808EF22E5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{827A7E87-2C6A-4667-864D-CDFBD2E4870B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B39DD7D6-B826-43CB-BE40-3B1A4974971C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9F4FF67B-D501-46C6-9986-70F9C82F25DC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0C9E6B70-8C4D-4028-8771-67C5CE5F5788}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3BC54D11-3180-4672-86E4-B44B2BE9002B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7D6E7597-2957-4C65-AA1A-ED2109970D47}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2CB6CB93-36F6-4D96-89A2-0FFB0F57E84B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6E468B11-91A4-4127-B65A-6C434D275DC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C536B604-7ABB-4592-B069-761D8CFA8CA7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DC89D1FD-A21D-40D7-8DE8-BE9CAA29600D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6A5A0C65-2B78-46DF-9B23-7461BB7BAA0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{73FD8B9C-E48F-4CC6-A459-66ABC872F336}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8B898BFB-FDFA-4869-9BD1-B6B526E624FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{89808783-CB9F-4EA3-BA11-249BA56E28B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4911,7 +4911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F5FC58-0628-48C1-BEBC-10C9E6DF087C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D26340-AA64-486A-8FBA-6BD6FD5DE0F8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6088,18 +6088,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{05B55D95-66FE-43D1-98FD-7E0384F9D5DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{977DF6E8-0DA0-479F-9E40-E9C7744ECAB8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2FA8D853-EE53-4F64-B19A-0FB5A91E9F26}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C2C2D91C-93FC-4C58-9A28-50A9A9E3EB8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FCAE592B-650E-4FB5-8A6C-045958481C55}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E16C1CE9-4724-469F-957A-61DA9AB61BFA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EFD2CD68-3449-46F8-BF58-69A38337F59C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D4CEB45B-0A05-42E0-9304-634ECAF4BA0C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{69AA7EA4-8407-4ECF-8E4C-710469D2B163}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5B3A7457-64E7-4E4E-880B-D61BE08698E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1F69FC5B-5E55-4346-A7BC-442A0D9CEFD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D0B74C2D-C9CB-4382-BDB1-0B7086B40E8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA625C2B-8420-4950-9B3C-B38E068362D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{079B7BF6-1F64-4FC3-8D40-AE6514D42D9E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E3E9FBDC-84AA-4757-84C8-71F879EEA19C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F1F12F5E-801F-4368-889F-0487862711EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{46C8E297-47D4-4199-898B-A671FD4D1ACE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93B83C45-5044-4400-8AA5-B57DA53EB89E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D52C7B09-FD88-438F-8EFE-A4B19BC6EA29}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D8303DA6-D140-4EB2-9FA0-3323A9633B26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3CCEC623-9F3B-43AA-B004-2FF51163B012}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8A855B26-8157-494C-92F9-8D7FC7C4785C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74EF8675-2726-43D6-BC97-B0FF2E3A71A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{198EC750-487F-45FB-A95D-6BCDA3160400}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6112,7 +6112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BCA2AB-769B-4887-AD58-2195E48D97A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AF20B9-C811-475A-AA21-DBC35C441706}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7345,18 +7345,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90DEE0DF-70C6-48D7-B34D-DEF450ABA3EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EDD21072-3FC1-480C-A4F9-1037B9CBA114}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6BC98C7A-681E-4EE4-9572-64EAF8EB8F76}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EE4758AE-7570-4E61-81DC-5C12AC3B9465}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C643A798-A7D7-4953-92A3-A1748F6BA606}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{37F3A7B3-C5CD-40F6-8A5B-EB56E1594F49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1FAF05AB-4614-4BC3-BE83-F4F753FA0F5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25912BB7-D164-4EF2-86DE-4DC9EDC3CF85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{22AD3FA5-9492-4E15-B9BB-6A53644EB629}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{676B803D-EF95-4FE1-86E3-198A570C7FCF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{88A6A593-7D90-492C-B53A-D496B8C68CFE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D98B916D-5C8F-48D4-9E22-052F25B75212}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CE509C66-117F-43AB-8AE2-A9C5CAE07AFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{00361784-2632-4B93-8D9C-91BD015A0B79}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E9D298CD-D2D6-4A0E-BFB3-ECFE03898B6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80E81CD8-1609-4DDC-BA96-A96FA13688A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3DC87739-A275-4705-AA9F-4933941297EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{03118BDB-CFDE-43F8-8E6D-39E57D864E1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E2616E43-24A7-497F-9607-CB264ED19599}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A4084C64-A6E1-4F30-9181-42D5038570CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ABD8DBA4-976E-46E9-A15E-DF78AF341EF2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8E7B7266-16D5-427B-8C57-684070F262DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AAC2B865-6AB6-4865-95AF-D8471F3D0E66}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A04184D3-051A-4C2C-AB69-EA31898D8951}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7369,7 +7369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB9677-EA4C-4275-B152-BEB48C230C2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36C3A49-A0DC-40F8-A739-4E7666C1AB4B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8602,18 +8602,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5DE23938-59BD-4EEE-BFD7-A066EC4A08C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B07C6A22-ECB6-4B91-88BF-DD196E9DE5FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CC7B2F45-FE6C-46B0-93B3-421B0B42E10F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5F1C2504-1D8A-464E-A9E5-4D29DEF03E23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5DA0002B-3DC8-4D28-932E-08EA044E5DB2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{49D89C88-9B9F-49B3-9F98-6F78D6AE546A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6C7F3B0D-2591-4AD6-A0BA-7D71CD428D7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E7E10CA6-EB75-47C3-9E56-8A939B7DE5F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{55D112CC-DF73-4273-A821-34DD549B1FFA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F84F25C1-79B1-4092-82C6-34038788FAFD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A5755E81-6107-4F3A-893D-70BE81123628}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{825DC52D-24A2-4B5A-8561-90DC67D27276}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7EF5167F-6673-477D-BD1E-4A4A66A9EEE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{98C6131C-D5BA-49D1-B3DE-8F06FE5B68B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{843A00CF-94D7-4E6E-A2B8-1993A827556D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4FDB17BC-1A6F-45C6-A233-C751A9A2C680}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF51C62C-6533-40F9-B963-999F8F6A24E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9FC9B5A3-764C-4CD5-B0CE-9BB8FFC6B85B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4D38BFF8-DC45-4A4A-A392-5A4795F46A15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{49CC73CA-C363-464B-B742-66E7324DEF62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F613D9B4-10E8-4A1C-B7CA-1FA6437A5FE6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB7DA971-6C46-4D44-8AE9-68341F721E6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{96EA911C-9616-4089-80FD-39A76E193436}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5F3B7042-C97A-40B0-BDF7-34D8FB0C66E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8626,7 +8626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8EC399-3098-466D-B07A-9CC7B793A42F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEFEC0-4789-4A04-B06A-6EC0E6A087FC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9857,18 +9857,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{54D2C5D4-2725-45EC-B719-4F2352486C0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{49D9D30B-145F-4A68-9BAB-22D821E5FFF2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D49A90C1-9D12-48BA-A287-9AA812AF0AEB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B13F4CFD-E4D9-4473-887B-9A1403CF30EF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1AAF3B9E-2290-4A94-A596-A359A4EDC947}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AC693A0F-9C09-4B04-93AC-39A9251CCC1A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7E541953-B5D6-408E-9650-3788046B069A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DDD95AF9-1595-4E46-9620-89FBF1CD2ECE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{20ECEA24-012B-4743-81CE-3F2405E84F90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{83CA9E08-654B-4A55-997D-A3587973C807}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{860BD3FC-8553-4446-8732-742988014EAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5CE0EC7F-FD2A-40AE-A9F1-E11EF649A91E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{11853B48-CC74-4899-9FE2-E7B566F59041}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4F1E228D-511E-44F7-87EA-855836EEAECC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{507724FD-353C-4868-AD9B-9CF52C84C6A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3F530284-D3B6-4B19-9060-9FD1BB349983}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{507059FD-898F-42DB-88F6-3DC3AB3BFF0F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{680B3A25-E4F1-4086-83BD-D61CDA0A0C92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{037DC066-D328-430A-97CD-562725BE81AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A12279BF-8CA0-495F-8AD1-E58C55899C53}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2DDF5086-C5EE-4B84-B8AD-7628924B1D01}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{285A1BF3-1B91-495A-B203-6BEF74F9EE12}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{23B86E6B-7340-4F6C-B9E5-F93F44809882}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D56070F1-7E21-4294-A1B7-024E8CE202A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9881,7 +9881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45034A56-5031-4AC1-8423-D6271238392B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF02F26C-7E8E-4A77-AF38-B9EEF23DF031}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11098,18 +11098,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4E3879A1-097C-4C2E-9BC1-583EFD345E16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6CC69E75-BEC8-43D0-B1B7-68C069F90E7F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7AEABA2F-F11B-40AD-B959-69C650FFFD78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{481D49CA-B1FB-4E7B-B23B-6C01DA3BCB0B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CF3FAF88-EC03-4F59-A85C-EC685A8C5531}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{77781834-BE06-45D4-B741-DEFEC634CC77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D8AD2CF-032B-4A57-9A6D-854AEE4B46A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DCB13EC0-082E-4049-ABD1-5210621F21E1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7AED01CD-A735-4525-8851-5E58F5AB51EF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4DF13004-507A-4422-854E-AAFE932C73A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2F2EA196-2CDC-49C8-B03D-0654AB2046A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E7251763-6A26-4F30-9B13-F8B866B96FCE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E80D2696-50F0-4681-9BAF-41C1CF466FF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4F52213F-BF26-44CF-965A-945A9C480E36}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{998D5EC1-591C-4FB9-B48A-315401FDFEE9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{04FC35AB-B12B-45B9-B6E1-D887F765A3BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8931E096-2BD7-48E1-A26C-CBA979DB689A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{39052986-67A9-4FB7-9672-62BEE6C079A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{05561417-0E15-492A-A129-E2EE92E08F11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6B6BBC11-D695-4DA1-A11A-EFC0BDDFAD7C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2C678197-739D-438D-912D-DE8986C27A2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1FEB47DB-F0FC-4249-8BB5-86556E5C2FAD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CFE3E73C-F261-42FE-8DFB-B692F8DB8116}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0926B058-788D-4B4A-BECC-C510118C641A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11122,7 +11122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9CC747-9FA8-4901-AF27-B896B6700F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D8D84D-141D-4A6B-96FC-130ED8E35D5E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12343,18 +12343,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{20A2FEE0-7EDF-4BC7-833A-2ED4BAD3841A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{096854D1-950D-4F9C-963B-66ACAB76808A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B3FC140A-D871-476A-B469-37BD0A2E5343}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{34567E79-5464-4C82-86A6-5F87F606AA53}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{637A6B8C-A952-4176-A221-D2AD6758D7BC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B874F923-FFE1-4206-96FC-FD1E29C4A0BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F2B41046-99E8-495F-9E8D-C25B1216F201}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{982543E5-273E-483B-80B4-5B9C67C84337}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F1D9C301-697C-4CE3-A0FF-73A78FE1721E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{32E42796-F431-431E-988D-0684546AB97B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3411C8EE-6342-4E9E-BF66-19976FDD51E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3DE4CCB9-E3C2-4555-BCED-A4F2E232A86F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AC65ED67-E1A3-4AAB-A611-F621B35498AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D4480F9D-7F05-46FD-A1A9-E050E8F5446C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3DBAFE7B-8FD2-458D-A740-7935CB6763D2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{46F94415-C7BD-431E-98E7-CE861897BCFE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3F5E59F4-C290-43F1-9A01-9B228945F582}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1183B871-3077-42BF-9DF6-E8FF80BC21B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C449FC68-96FC-4F8D-A004-CF99E67F6865}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4323C6A3-214F-48B1-838E-98CA7E4C9F1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{21189208-945C-480F-BD84-2615E5787F3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A6AD0BCF-8917-46F8-9FE8-26EBB834BD28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CEC50EA0-79A2-4299-AA8F-AB6A3EDB89A3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{46349A80-7EF4-46C6-B4E1-26D80F5DC9CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12367,7 +12367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9B9DC-286E-41A3-ADCB-7980A43C8F0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AED62A-7C34-47BF-BC9B-2550229B36AE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13568,18 +13568,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8FEE32B2-2D91-4451-8296-EADE145EA4FC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F4AB90D8-6076-45DA-8EFC-B2E37B8B0226}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A49F547C-820A-4A18-AE8A-FE27D2E09ED3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A7B2AAEB-499F-43B7-852D-CCFFB0F8925B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{558322D3-CB74-4C4B-A413-C94B3323F8B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{714660AA-B9D5-46E1-B044-9270FA634F8F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{69CE2B81-E1E2-4B49-AE6E-4A8AEDA2117D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D213103-9890-461B-9592-DE3AD43E7A8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60D7F858-8ED1-4149-9FEF-E85ADF771780}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3970EE2E-A00E-4006-8E88-0BC6E3D9069D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{80E3C904-63E0-42A4-94BC-34102AE8995C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{803A0812-132E-44E6-B839-8022C1FEEBBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8D0DD9F6-1E54-4670-843B-71EF789FBD3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{391249F0-9C22-497C-B0C5-CAC8518A4D6C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DFDE05EF-5963-4BBC-A095-B91112646618}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FBF68348-CDBA-4C80-A999-0A277F56D9D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D68F4486-E74C-4B03-9CF8-81329D04CC4C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{69B4B1B7-F002-4749-B29A-0D9B1C11107C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9BAA513C-FE7D-466A-9376-3D17FC93FAD1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{24D03E61-3A54-42DE-A332-4BE9338F0D79}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2DEA1505-3A6B-4260-8EC7-AB54E2793B52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B576AC5B-CF25-413A-B262-E84C96501987}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F752DE04-319B-47B5-9C2F-1A850BEDDF1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8A99772D-E70D-45E7-B7A4-FCEFFBCFBFC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13592,7 +13592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ADDFD6-B363-420E-AB41-3DA2B8273BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD1F42E-5BEE-4182-AC47-8844FF61B5E2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14793,18 +14793,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{27C6A047-E7EB-444E-A67A-88D2648AA465}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{955147BF-641F-47E2-9A95-EECEA5EDF3F0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6A7FACEC-E17F-47C8-9A64-1CC7B3CB7825}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EB37A9FD-4F24-47D6-AA31-E2DFBEB417E2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7C58BEAA-C593-49C5-824B-3B68231F6ECA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B7D443FF-43FE-4D79-B752-5ED72A6ACF92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{415746BB-E0FC-425F-A5E3-AE1A35C0438D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{57BB629B-F1E6-4F8F-8F85-1AF37D7A833F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{434BF711-95B3-42D6-B962-070D2B05D042}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{203C0F09-EB4B-45A2-8EEC-E98E5B1E4350}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{30042515-E5DA-47A5-90B8-7EB6D5A84349}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B844CF73-8CDC-47CB-B779-E54F98E6B399}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5E8D0266-28E4-41D6-AEE2-5E872E38A8B9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6E2C8D2B-BEFA-4D89-BED3-37D41F71E155}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{46B5ECBC-D8B9-4E4E-9F33-4A1220ECAC42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EF1A1645-A024-4552-8901-B6B6BD99E510}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{728872F5-7328-4BB7-8BE0-F4530B186F18}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6FE3BE2D-4591-483B-9C15-7C523E7F13AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7A224F22-910A-4FE9-9609-D0D43C6EFBB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{43F3D5A4-3BE9-42E3-9CEC-1027E006F440}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B7939576-B9DC-464E-8F43-96DD39D91BA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1FA35399-F092-4F81-90B2-D1611387539F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{16CE90FF-3B0F-496B-ACE3-010456A073A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BE0B0D7B-8AAD-49B8-BA59-3AA0EAA75162}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14817,7 +14817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1A4301-9745-469B-8321-5E7164BA465B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21A7907-0047-4507-AECF-7487B8B9F4FE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16014,18 +16014,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4B7A201A-67C5-4513-A26D-6F93A17862A5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{89D53D3F-93D1-47DE-80F2-1A0B15A66400}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CE110182-0153-46A8-B8E3-31ACDF27690D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{18F55F1E-4F1E-4BCF-BF92-8DBDFBF4FA8B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E023C2C-A5DA-4230-99A6-5365E9451D0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{34F647B1-E128-41EA-A595-09699552C93B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4AFEB6AA-643A-427A-B152-8DABE103D3C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{74537895-7713-4BE0-B395-300EF936D0AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{80881755-7D55-4AD7-A507-B00880893397}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1E4876D-9089-4862-8245-D1D42D12FDC0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B3822FD5-7E8F-4BCE-9E6F-B19E2E36A8B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BE8D4E0E-8EEC-4ABB-AB09-BF3785836A4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3D0CA156-6C29-437A-B7DA-31DB26D93832}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4C6C7C30-E8B6-4587-BCE7-0BB163B49ED9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9F0E0239-2B6F-408A-A365-FFF785FF7620}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{07DD8422-C8E4-47C2-ADB2-A7501394083B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{06EED5A8-C716-412E-9D00-751CA7DBC9F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4FEE1CE0-A0FE-44F6-A334-32216B92416A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6754AD5C-ED13-4F38-ABBD-847E8D5E3650}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FB966C1F-39F6-44B7-A36F-63148A7D3BC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{355BF713-24FC-4E81-81E5-6A78A4FCB742}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{51E255BE-0915-4FA4-9884-6CECC6FE0176}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33426627-1F96-4A26-8A9B-622F0F05A9C0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B160EB15-E987-452C-A5C7-90D1F966C502}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
